--- a/forms/contact/chw_area-edit.xlsx
+++ b/forms/contact/chw_area-edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Community Testing Forms\config-covid-community-testing-master_Aug 24 2022\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="166">
   <si>
     <t>list_name</t>
   </si>
@@ -225,12 +225,6 @@
   </si>
   <si>
     <t>Contact ID of the logged in user</t>
-  </si>
-  <si>
-    <t>facility_id</t>
-  </si>
-  <si>
-    <t>Place ID of the logged in user</t>
   </si>
   <si>
     <t>Name of the logged in user</t>
@@ -921,13 +915,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI1010"/>
+  <dimension ref="A1:AI1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1168,7 +1162,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>38</v>
@@ -1189,7 +1183,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
@@ -1210,19 +1204,13 @@
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
     </row>
-    <row r="6" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1235,9 +1223,7 @@
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
@@ -1257,9 +1243,9 @@
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
     </row>
-    <row r="7" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -1297,98 +1283,108 @@
       <c r="AI7" s="12"/>
     </row>
     <row r="8" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+    </row>
+    <row r="9" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-    </row>
-    <row r="9" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-    </row>
-    <row r="10" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+    </row>
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -1419,26 +1415,16 @@
       <c r="AH10" s="20"/>
       <c r="AI10" s="20"/>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -1469,101 +1455,107 @@
       <c r="AI11" s="20"/>
     </row>
     <row r="12" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+    </row>
+    <row r="13" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-    </row>
-    <row r="13" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
     </row>
     <row r="14" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="E14" s="20"/>
-      <c r="F14" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -1572,7 +1564,9 @@
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
+      <c r="P14" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
@@ -1594,168 +1588,172 @@
       <c r="AI14" s="20"/>
     </row>
     <row r="15" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>83</v>
+      <c r="A15" s="21" t="s">
+        <v>81</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
+    </row>
+    <row r="16" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C16" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D16" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="20"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="20"/>
-    </row>
-    <row r="16" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>83</v>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+    </row>
+    <row r="17" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>65</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>1</v>
+      <c r="B17" s="19" t="s">
+        <v>163</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-    </row>
-    <row r="17" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="25" t="s">
+      <c r="C17" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26" t="s">
+      <c r="D17" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
+      <c r="E17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
     </row>
     <row r="18" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="F18" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="H18" s="20"/>
-      <c r="I18" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
@@ -1784,31 +1782,25 @@
       <c r="AI18" s="20"/>
     </row>
     <row r="19" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="20" t="s">
+      <c r="A19" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="20" t="s">
+      <c r="B19" s="27" t="s">
         <v>95</v>
       </c>
+      <c r="C19" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
@@ -1836,13 +1828,13 @@
     </row>
     <row r="20" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -1851,9 +1843,7 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
-      <c r="K20" s="28" t="s">
-        <v>99</v>
-      </c>
+      <c r="K20" s="20"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
@@ -1881,13 +1871,13 @@
     </row>
     <row r="21" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>100</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -1924,21 +1914,29 @@
     </row>
     <row r="22" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="E22" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="I22" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>106</v>
+      </c>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
@@ -1967,28 +1965,28 @@
     </row>
     <row r="23" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
@@ -2018,30 +2016,24 @@
     </row>
     <row r="24" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="D24" s="20"/>
-      <c r="E24" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>112</v>
-      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="J24" s="29" t="s">
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
@@ -2069,13 +2061,13 @@
     </row>
     <row r="25" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -2114,24 +2106,18 @@
     </row>
     <row r="26" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>98</v>
-      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28" t="s">
-        <v>118</v>
-      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
@@ -2159,17 +2145,30 @@
     </row>
     <row r="27" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
+      <c r="I27" s="30" t="b">
+        <f t="shared" ref="I27:I28" si="0">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
@@ -2198,29 +2197,29 @@
     </row>
     <row r="28" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>119</v>
+      <c r="B28" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="30" t="b">
-        <f t="shared" ref="I28:I29" si="0">TRUE()</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
@@ -2250,30 +2249,25 @@
     </row>
     <row r="29" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
-      <c r="B29" s="27" t="s">
-        <v>123</v>
+      <c r="B29" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="30" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
@@ -2304,19 +2298,15 @@
       <c r="A30" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="C30" s="28" t="s">
         <v>128</v>
       </c>
+      <c r="D30" s="20"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
@@ -2348,14 +2338,14 @@
       <c r="AI30" s="20"/>
     </row>
     <row r="31" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="B31" s="19" t="s">
         <v>130</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>131</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -2392,7 +2382,7 @@
     </row>
     <row r="32" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>132</v>
@@ -2405,8 +2395,12 @@
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
+      <c r="I32" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
@@ -2435,25 +2429,27 @@
     </row>
     <row r="33" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20" t="s">
+      <c r="D33" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="J33" s="20" t="s">
-        <v>108</v>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20" t="s">
+        <v>80</v>
       </c>
+      <c r="G33" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
@@ -2482,23 +2478,19 @@
     </row>
     <row r="34" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>138</v>
-      </c>
+      <c r="D34" s="20"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="F34" s="20"/>
       <c r="G34" s="20" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
@@ -2531,24 +2523,22 @@
     </row>
     <row r="35" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>38</v>
-      </c>
+      <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="20" t="s">
-        <v>83</v>
-      </c>
+      <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="20" t="s">
+        <v>140</v>
+      </c>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
@@ -2576,7 +2566,7 @@
     </row>
     <row r="36" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>141</v>
@@ -2619,7 +2609,7 @@
     </row>
     <row r="37" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>143</v>
@@ -2662,11 +2652,9 @@
     </row>
     <row r="38" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>145</v>
-      </c>
+      <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
@@ -2675,9 +2663,7 @@
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
-      <c r="K38" s="20" t="s">
-        <v>146</v>
-      </c>
+      <c r="K38" s="20"/>
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
@@ -2705,7 +2691,7 @@
     </row>
     <row r="39" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
@@ -2743,87 +2729,95 @@
       <c r="AI39" s="20"/>
     </row>
     <row r="40" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+    </row>
+    <row r="41" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="20"/>
-      <c r="AD40" s="20"/>
-      <c r="AE40" s="20"/>
-      <c r="AF40" s="20"/>
-      <c r="AG40" s="20"/>
-      <c r="AH40" s="20"/>
-      <c r="AI40" s="20"/>
-    </row>
-    <row r="41" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="10"/>
-      <c r="AF41" s="10"/>
-      <c r="AG41" s="10"/>
-      <c r="AH41" s="10"/>
-      <c r="AI41" s="10"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="20"/>
     </row>
     <row r="42" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
-        <v>36</v>
+      <c r="A42" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>38</v>
@@ -2833,9 +2827,7 @@
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="G42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
@@ -2844,7 +2836,9 @@
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
+      <c r="P42" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
       <c r="S42" s="20"/>
@@ -2867,10 +2861,10 @@
     </row>
     <row r="43" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>38</v>
@@ -2889,8 +2883,8 @@
       <c r="M43" s="20"/>
       <c r="N43" s="20"/>
       <c r="O43" s="20"/>
-      <c r="P43" s="20" t="s">
-        <v>85</v>
+      <c r="P43" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
@@ -2913,16 +2907,16 @@
       <c r="AI43" s="20"/>
     </row>
     <row r="44" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="31" t="s">
-        <v>83</v>
+      <c r="A44" s="32" t="s">
+        <v>81</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>1</v>
+      <c r="B44" s="27" t="s">
+        <v>84</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E44" s="20"/>
@@ -2937,7 +2931,7 @@
       <c r="N44" s="20"/>
       <c r="O44" s="20"/>
       <c r="P44" s="28" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="Q44" s="20"/>
       <c r="R44" s="20"/>
@@ -2960,32 +2954,32 @@
       <c r="AI44" s="20"/>
     </row>
     <row r="45" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
-        <v>83</v>
+      <c r="A45" s="19" t="s">
+        <v>65</v>
       </c>
-      <c r="B45" s="27" t="s">
-        <v>86</v>
+      <c r="B45" s="19" t="s">
+        <v>164</v>
       </c>
-      <c r="C45" s="29" t="s">
-        <v>38</v>
+      <c r="C45" s="20" t="s">
+        <v>146</v>
       </c>
-      <c r="D45" s="29" t="s">
-        <v>38</v>
+      <c r="D45" s="20" t="s">
+        <v>87</v>
       </c>
-      <c r="E45" s="20"/>
+      <c r="E45" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
+      <c r="J45" s="33"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
       <c r="O45" s="20"/>
-      <c r="P45" s="28" t="s">
-        <v>147</v>
-      </c>
+      <c r="P45" s="20"/>
       <c r="Q45" s="20"/>
       <c r="R45" s="20"/>
       <c r="S45" s="20"/>
@@ -3011,22 +3005,20 @@
         <v>65</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
-      <c r="E46" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
-      <c r="J46" s="33"/>
+      <c r="J46" s="20"/>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
@@ -3054,44 +3046,42 @@
       <c r="AI46" s="20"/>
     </row>
     <row r="47" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>126</v>
+      <c r="B47" s="22" t="s">
+        <v>148</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="20" t="s">
+      <c r="C47" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="20"/>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="20"/>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="20"/>
-      <c r="AC47" s="20"/>
-      <c r="AD47" s="20"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="34"/>
+      <c r="AD47" s="34"/>
       <c r="AE47" s="20"/>
       <c r="AF47" s="20"/>
       <c r="AG47" s="20"/>
@@ -3099,42 +3089,42 @@
       <c r="AI47" s="20"/>
     </row>
     <row r="48" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="34"/>
-      <c r="AD48" s="34"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="36"/>
+      <c r="V48" s="36"/>
+      <c r="W48" s="36"/>
+      <c r="X48" s="36"/>
+      <c r="Y48" s="36"/>
+      <c r="Z48" s="36"/>
+      <c r="AA48" s="36"/>
+      <c r="AB48" s="36"/>
+      <c r="AC48" s="36"/>
+      <c r="AD48" s="36"/>
       <c r="AE48" s="20"/>
       <c r="AF48" s="20"/>
       <c r="AG48" s="20"/>
@@ -3142,13 +3132,13 @@
       <c r="AI48" s="20"/>
     </row>
     <row r="49" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="37" t="s">
         <v>153</v>
       </c>
       <c r="D49" s="36"/>
@@ -3185,42 +3175,42 @@
       <c r="AI49" s="20"/>
     </row>
     <row r="50" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
-        <v>65</v>
+      <c r="A50" s="38" t="s">
+        <v>107</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="36"/>
-      <c r="X50" s="36"/>
-      <c r="Y50" s="36"/>
-      <c r="Z50" s="36"/>
-      <c r="AA50" s="36"/>
-      <c r="AB50" s="36"/>
-      <c r="AC50" s="36"/>
-      <c r="AD50" s="36"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="40"/>
+      <c r="AA50" s="40"/>
+      <c r="AB50" s="40"/>
+      <c r="AC50" s="40"/>
+      <c r="AD50" s="40"/>
       <c r="AE50" s="20"/>
       <c r="AF50" s="20"/>
       <c r="AG50" s="20"/>
@@ -3229,7 +3219,7 @@
     </row>
     <row r="51" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B51" s="38" t="s">
         <v>156</v>
@@ -3271,42 +3261,46 @@
       <c r="AI51" s="20"/>
     </row>
     <row r="52" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="38" t="s">
-        <v>109</v>
+      <c r="A52" s="19" t="s">
+        <v>65</v>
       </c>
-      <c r="B52" s="38" t="s">
-        <v>158</v>
+      <c r="B52" s="19" t="s">
+        <v>35</v>
       </c>
-      <c r="C52" s="39" t="s">
-        <v>159</v>
+      <c r="C52" s="20" t="s">
+        <v>135</v>
       </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="40"/>
-      <c r="Y52" s="40"/>
-      <c r="Z52" s="40"/>
-      <c r="AA52" s="40"/>
-      <c r="AB52" s="40"/>
-      <c r="AC52" s="40"/>
-      <c r="AD52" s="40"/>
+      <c r="D52" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="20"/>
+      <c r="AD52" s="20"/>
       <c r="AE52" s="20"/>
       <c r="AF52" s="20"/>
       <c r="AG52" s="20"/>
@@ -3315,26 +3309,22 @@
     </row>
     <row r="53" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>138</v>
-      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="20" t="s">
-        <v>139</v>
-      </c>
+      <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="28" t="s">
+        <v>158</v>
+      </c>
       <c r="L53" s="20"/>
       <c r="M53" s="20"/>
       <c r="N53" s="20"/>
@@ -3362,10 +3352,10 @@
     </row>
     <row r="54" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -3375,7 +3365,7 @@
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
-      <c r="K54" s="28" t="s">
+      <c r="K54" s="20" t="s">
         <v>160</v>
       </c>
       <c r="L54" s="20"/>
@@ -3405,22 +3395,26 @@
     </row>
     <row r="55" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
+      <c r="C55" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
+      <c r="G55" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
-      <c r="K55" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="K55" s="20"/>
       <c r="L55" s="20"/>
       <c r="M55" s="20"/>
       <c r="N55" s="20"/>
@@ -3448,26 +3442,22 @@
     </row>
     <row r="56" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>38</v>
-      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="20" t="s">
-        <v>83</v>
-      </c>
+      <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
+      <c r="K56" s="20" t="s">
+        <v>140</v>
+      </c>
       <c r="L56" s="20"/>
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
@@ -3495,7 +3485,7 @@
     </row>
     <row r="57" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>141</v>
@@ -3538,7 +3528,7 @@
     </row>
     <row r="58" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>143</v>
@@ -3581,11 +3571,9 @@
     </row>
     <row r="59" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>145</v>
-      </c>
+      <c r="B59" s="19"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
@@ -3594,9 +3582,7 @@
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
-      <c r="K59" s="20" t="s">
-        <v>146</v>
-      </c>
+      <c r="K59" s="20"/>
       <c r="L59" s="20"/>
       <c r="M59" s="20"/>
       <c r="N59" s="20"/>
@@ -3624,7 +3610,7 @@
     </row>
     <row r="60" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
@@ -3661,44 +3647,42 @@
       <c r="AH60" s="20"/>
       <c r="AI60" s="20"/>
     </row>
-    <row r="61" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="20"/>
-      <c r="V61" s="20"/>
-      <c r="W61" s="20"/>
-      <c r="X61" s="20"/>
-      <c r="Y61" s="20"/>
-      <c r="Z61" s="20"/>
-      <c r="AA61" s="20"/>
-      <c r="AB61" s="20"/>
-      <c r="AC61" s="20"/>
-      <c r="AD61" s="20"/>
-      <c r="AE61" s="20"/>
-      <c r="AF61" s="20"/>
-      <c r="AG61" s="20"/>
-      <c r="AH61" s="20"/>
-      <c r="AI61" s="20"/>
+    <row r="61" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="10"/>
+      <c r="AG61" s="10"/>
+      <c r="AH61" s="10"/>
+      <c r="AI61" s="10"/>
     </row>
     <row r="62" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
@@ -38775,43 +38759,6 @@
       <c r="AG1009" s="10"/>
       <c r="AH1009" s="10"/>
       <c r="AI1009" s="10"/>
-    </row>
-    <row r="1010" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1010" s="10"/>
-      <c r="B1010" s="10"/>
-      <c r="C1010" s="10"/>
-      <c r="D1010" s="10"/>
-      <c r="E1010" s="10"/>
-      <c r="F1010" s="10"/>
-      <c r="G1010" s="10"/>
-      <c r="H1010" s="10"/>
-      <c r="I1010" s="10"/>
-      <c r="J1010" s="10"/>
-      <c r="K1010" s="10"/>
-      <c r="L1010" s="10"/>
-      <c r="M1010" s="10"/>
-      <c r="N1010" s="10"/>
-      <c r="O1010" s="10"/>
-      <c r="P1010" s="10"/>
-      <c r="Q1010" s="10"/>
-      <c r="R1010" s="10"/>
-      <c r="S1010" s="10"/>
-      <c r="T1010" s="10"/>
-      <c r="U1010" s="10"/>
-      <c r="V1010" s="10"/>
-      <c r="W1010" s="10"/>
-      <c r="X1010" s="10"/>
-      <c r="Y1010" s="10"/>
-      <c r="Z1010" s="10"/>
-      <c r="AA1010" s="10"/>
-      <c r="AB1010" s="10"/>
-      <c r="AC1010" s="10"/>
-      <c r="AD1010" s="10"/>
-      <c r="AE1010" s="10"/>
-      <c r="AF1010" s="10"/>
-      <c r="AG1010" s="10"/>
-      <c r="AH1010" s="10"/>
-      <c r="AI1010" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -40185,14 +40132,14 @@
     </row>
     <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-08-30 17-19</v>
+        <v>2022-09-22 15-41</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>

--- a/forms/contact/chw_area-edit.xlsx
+++ b/forms/contact/chw_area-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="157">
   <si>
     <t>list_name</t>
   </si>
@@ -404,12 +404,6 @@
     <t>Kitambulisho cha nje</t>
   </si>
   <si>
-    <t>treatment_program</t>
-  </si>
-  <si>
-    <t>Treatment Program</t>
-  </si>
-  <si>
     <t>select_one education</t>
   </si>
   <si>
@@ -473,30 +467,6 @@
     <t>Village</t>
   </si>
   <si>
-    <t>traditional_authority</t>
-  </si>
-  <si>
-    <t>Traditional Authority</t>
-  </si>
-  <si>
-    <t>health_surveillance_assistant</t>
-  </si>
-  <si>
-    <t>Health Surveillance Assistant</t>
-  </si>
-  <si>
-    <t>schw_id</t>
-  </si>
-  <si>
-    <t>Senior CHW PIN</t>
-  </si>
-  <si>
-    <t>ss_id</t>
-  </si>
-  <si>
-    <t>Site Supervisor PIN</t>
-  </si>
-  <si>
     <t>if(selected(${create_new_person},'none'), "", "NEW")</t>
   </si>
   <si>
@@ -520,12 +490,15 @@
   <si>
     <t>phonenumber</t>
   </si>
+  <si>
+    <t>facility_id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -556,6 +529,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -642,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -694,12 +672,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,13 +890,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI1009"/>
+  <dimension ref="A1:AI1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1157,60 +1132,64 @@
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
     </row>
-    <row r="5" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:35" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+    </row>
+    <row r="6" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-    </row>
-    <row r="6" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1223,7 +1202,9 @@
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="Q6" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
@@ -1243,7 +1224,7 @@
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
     </row>
-    <row r="7" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>69</v>
       </c>
@@ -1283,108 +1264,98 @@
       <c r="AI7" s="12"/>
     </row>
     <row r="8" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
+      <c r="A8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
     </row>
     <row r="9" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+    </row>
+    <row r="10" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B10" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-    </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>76</v>
-      </c>
+      <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -1415,16 +1386,26 @@
       <c r="AH10" s="20"/>
       <c r="AI10" s="20"/>
     </row>
-    <row r="11" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="B11" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -1455,107 +1436,101 @@
       <c r="AI11" s="20"/>
     </row>
     <row r="12" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
+      <c r="A12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
     </row>
     <row r="13" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+    </row>
+    <row r="14" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B14" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C14" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D14" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20" t="s">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G14" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
-      <c r="AF13" s="20"/>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
-    </row>
-    <row r="14" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -1564,9 +1539,7 @@
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
-      <c r="P14" s="20" t="s">
-        <v>83</v>
-      </c>
+      <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
@@ -1588,172 +1561,168 @@
       <c r="AI14" s="20"/>
     </row>
     <row r="15" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+    </row>
+    <row r="16" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-    </row>
-    <row r="16" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+    </row>
+    <row r="17" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B17" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C17" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D17" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26" t="s">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="26"/>
-    </row>
-    <row r="17" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+    </row>
+    <row r="18" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>163</v>
+      <c r="B18" s="19" t="s">
+        <v>153</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D18" s="20" t="s">
         <v>87</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="20"/>
-    </row>
-    <row r="18" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>92</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>80</v>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20" t="s">
+        <v>88</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
@@ -1782,25 +1751,31 @@
       <c r="AI18" s="20"/>
     </row>
     <row r="19" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>94</v>
+      <c r="A19" s="19" t="s">
+        <v>89</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>95</v>
+      <c r="B19" s="19" t="s">
+        <v>90</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>96</v>
+      <c r="C19" s="20" t="s">
+        <v>91</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="D19" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="28" t="s">
-        <v>97</v>
-      </c>
+      <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
@@ -1828,13 +1803,13 @@
     </row>
     <row r="20" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -1843,7 +1818,9 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
@@ -1871,13 +1848,13 @@
     </row>
     <row r="21" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -1914,29 +1891,21 @@
     </row>
     <row r="22" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D22" s="20"/>
-      <c r="E22" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>104</v>
-      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J22" s="29" t="s">
-        <v>106</v>
-      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
@@ -1965,28 +1934,28 @@
     </row>
     <row r="23" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="28" t="s">
         <v>76</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="29" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
@@ -2016,24 +1985,30 @@
     </row>
     <row r="24" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="E24" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>110</v>
+      </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28" t="s">
-        <v>114</v>
+      <c r="I24" s="29" t="s">
+        <v>111</v>
       </c>
+      <c r="J24" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
@@ -2064,10 +2039,10 @@
         <v>94</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -2077,7 +2052,7 @@
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
@@ -2106,18 +2081,24 @@
     </row>
     <row r="26" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28" t="s">
+        <v>116</v>
+      </c>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
@@ -2145,30 +2126,17 @@
     </row>
     <row r="27" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="30" t="b">
-        <f t="shared" ref="I27:I28" si="0">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>120</v>
-      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
@@ -2197,16 +2165,16 @@
     </row>
     <row r="28" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
-      <c r="B28" s="27" t="s">
-        <v>121</v>
+      <c r="B28" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20" t="s">
@@ -2215,7 +2183,7 @@
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="30" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I28:I29" si="0">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J28" s="20" t="s">
@@ -2249,16 +2217,16 @@
     </row>
     <row r="29" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>124</v>
+      <c r="B29" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20" t="s">
@@ -2266,8 +2234,13 @@
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
+      <c r="I29" s="30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
@@ -2298,15 +2271,19 @@
       <c r="A30" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="27" t="s">
-        <v>127</v>
+      <c r="B30" s="19" t="s">
+        <v>124</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>128</v>
+      <c r="C30" s="20" t="s">
+        <v>125</v>
       </c>
-      <c r="D30" s="20"/>
+      <c r="D30" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="F30" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
@@ -2339,13 +2316,13 @@
     </row>
     <row r="31" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -2385,10 +2362,10 @@
         <v>102</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
@@ -2396,7 +2373,7 @@
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J32" s="20" t="s">
         <v>106</v>
@@ -2435,17 +2412,17 @@
         <v>35</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
         <v>80</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
@@ -2481,7 +2458,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>38</v>
@@ -2526,7 +2503,7 @@
         <v>94</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
@@ -2537,7 +2514,7 @@
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
@@ -2569,7 +2546,7 @@
         <v>94</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
@@ -2580,7 +2557,7 @@
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
@@ -2612,7 +2589,7 @@
         <v>94</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
@@ -2623,7 +2600,7 @@
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
@@ -2770,7 +2747,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>38</v>
@@ -2931,7 +2908,7 @@
       <c r="N44" s="20"/>
       <c r="O44" s="20"/>
       <c r="P44" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q44" s="20"/>
       <c r="R44" s="20"/>
@@ -2958,10 +2935,10 @@
         <v>65</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>87</v>
@@ -3011,7 +2988,7 @@
         <v>125</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -3050,10 +3027,10 @@
         <v>65</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D47" s="34"/>
       <c r="E47" s="34"/>
@@ -3089,42 +3066,46 @@
       <c r="AI47" s="20"/>
     </row>
     <row r="48" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="25" t="s">
-        <v>150</v>
+      <c r="B48" s="19" t="s">
+        <v>35</v>
       </c>
-      <c r="C48" s="26" t="s">
-        <v>151</v>
+      <c r="C48" s="20" t="s">
+        <v>133</v>
       </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="36"/>
-      <c r="AB48" s="36"/>
-      <c r="AC48" s="36"/>
-      <c r="AD48" s="36"/>
+      <c r="D48" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="20"/>
+      <c r="AD48" s="20"/>
       <c r="AE48" s="20"/>
       <c r="AF48" s="20"/>
       <c r="AG48" s="20"/>
@@ -3132,42 +3113,42 @@
       <c r="AI48" s="20"/>
     </row>
     <row r="49" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
-        <v>65</v>
+      <c r="A49" s="19" t="s">
+        <v>94</v>
       </c>
-      <c r="B49" s="25" t="s">
-        <v>152</v>
+      <c r="B49" s="19" t="s">
+        <v>42</v>
       </c>
-      <c r="C49" s="37" t="s">
-        <v>153</v>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="28" t="s">
+        <v>148</v>
       </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-      <c r="AC49" s="36"/>
-      <c r="AD49" s="36"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="20"/>
+      <c r="AD49" s="20"/>
       <c r="AE49" s="20"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="20"/>
@@ -3175,42 +3156,42 @@
       <c r="AI49" s="20"/>
     </row>
     <row r="50" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="38" t="s">
-        <v>107</v>
+      <c r="A50" s="19" t="s">
+        <v>94</v>
       </c>
-      <c r="B50" s="38" t="s">
-        <v>154</v>
+      <c r="B50" s="19" t="s">
+        <v>149</v>
       </c>
-      <c r="C50" s="39" t="s">
-        <v>155</v>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20" t="s">
+        <v>150</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="40"/>
-      <c r="Z50" s="40"/>
-      <c r="AA50" s="40"/>
-      <c r="AB50" s="40"/>
-      <c r="AC50" s="40"/>
-      <c r="AD50" s="40"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
       <c r="AE50" s="20"/>
       <c r="AF50" s="20"/>
       <c r="AG50" s="20"/>
@@ -3218,42 +3199,46 @@
       <c r="AI50" s="20"/>
     </row>
     <row r="51" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="38" t="s">
-        <v>107</v>
+      <c r="A51" s="19" t="s">
+        <v>36</v>
       </c>
-      <c r="B51" s="38" t="s">
-        <v>156</v>
+      <c r="B51" s="19" t="s">
+        <v>136</v>
       </c>
-      <c r="C51" s="39" t="s">
-        <v>157</v>
+      <c r="C51" s="20" t="s">
+        <v>38</v>
       </c>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
-      <c r="W51" s="40"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="40"/>
-      <c r="Z51" s="40"/>
-      <c r="AA51" s="40"/>
-      <c r="AB51" s="40"/>
-      <c r="AC51" s="40"/>
-      <c r="AD51" s="40"/>
+      <c r="D51" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="20"/>
+      <c r="AD51" s="20"/>
       <c r="AE51" s="20"/>
       <c r="AF51" s="20"/>
       <c r="AG51" s="20"/>
@@ -3262,26 +3247,22 @@
     </row>
     <row r="52" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
-      <c r="C52" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>136</v>
-      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
@@ -3312,7 +3293,7 @@
         <v>94</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
@@ -3322,8 +3303,8 @@
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
-      <c r="K53" s="28" t="s">
-        <v>158</v>
+      <c r="K53" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="L53" s="20"/>
       <c r="M53" s="20"/>
@@ -3355,7 +3336,7 @@
         <v>94</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -3366,7 +3347,7 @@
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
       <c r="K54" s="20" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
@@ -3395,22 +3376,14 @@
     </row>
     <row r="55" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
-      <c r="B55" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>38</v>
-      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="G55" s="20"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
@@ -3442,11 +3415,9 @@
     </row>
     <row r="56" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
-      <c r="B56" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="B56" s="19"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
@@ -3455,9 +3426,7 @@
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
-      <c r="K56" s="20" t="s">
-        <v>140</v>
-      </c>
+      <c r="K56" s="20"/>
       <c r="L56" s="20"/>
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
@@ -3483,169 +3452,153 @@
       <c r="AH56" s="20"/>
       <c r="AI56" s="20"/>
     </row>
-    <row r="57" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="20"/>
-      <c r="X57" s="20"/>
-      <c r="Y57" s="20"/>
-      <c r="Z57" s="20"/>
-      <c r="AA57" s="20"/>
-      <c r="AB57" s="20"/>
-      <c r="AC57" s="20"/>
-      <c r="AD57" s="20"/>
-      <c r="AE57" s="20"/>
-      <c r="AF57" s="20"/>
-      <c r="AG57" s="20"/>
-      <c r="AH57" s="20"/>
-      <c r="AI57" s="20"/>
-    </row>
-    <row r="58" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="20"/>
-      <c r="V58" s="20"/>
-      <c r="W58" s="20"/>
-      <c r="X58" s="20"/>
-      <c r="Y58" s="20"/>
-      <c r="Z58" s="20"/>
-      <c r="AA58" s="20"/>
-      <c r="AB58" s="20"/>
-      <c r="AC58" s="20"/>
-      <c r="AD58" s="20"/>
-      <c r="AE58" s="20"/>
-      <c r="AF58" s="20"/>
-      <c r="AG58" s="20"/>
-      <c r="AH58" s="20"/>
-      <c r="AI58" s="20"/>
-    </row>
-    <row r="59" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="20"/>
-      <c r="X59" s="20"/>
-      <c r="Y59" s="20"/>
-      <c r="Z59" s="20"/>
-      <c r="AA59" s="20"/>
-      <c r="AB59" s="20"/>
-      <c r="AC59" s="20"/>
-      <c r="AD59" s="20"/>
-      <c r="AE59" s="20"/>
-      <c r="AF59" s="20"/>
-      <c r="AG59" s="20"/>
-      <c r="AH59" s="20"/>
-      <c r="AI59" s="20"/>
-    </row>
-    <row r="60" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20"/>
-      <c r="X60" s="20"/>
-      <c r="Y60" s="20"/>
-      <c r="Z60" s="20"/>
-      <c r="AA60" s="20"/>
-      <c r="AB60" s="20"/>
-      <c r="AC60" s="20"/>
-      <c r="AD60" s="20"/>
-      <c r="AE60" s="20"/>
-      <c r="AF60" s="20"/>
-      <c r="AG60" s="20"/>
-      <c r="AH60" s="20"/>
-      <c r="AI60" s="20"/>
+    <row r="57" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="10"/>
+      <c r="AH57" s="10"/>
+      <c r="AI57" s="10"/>
+    </row>
+    <row r="58" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="10"/>
+      <c r="AI58" s="10"/>
+    </row>
+    <row r="59" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="10"/>
+      <c r="AG59" s="10"/>
+      <c r="AH59" s="10"/>
+      <c r="AI59" s="10"/>
+    </row>
+    <row r="60" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
     </row>
     <row r="61" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10"/>
@@ -38611,154 +38564,6 @@
       <c r="AG1005" s="10"/>
       <c r="AH1005" s="10"/>
       <c r="AI1005" s="10"/>
-    </row>
-    <row r="1006" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1006" s="10"/>
-      <c r="B1006" s="10"/>
-      <c r="C1006" s="10"/>
-      <c r="D1006" s="10"/>
-      <c r="E1006" s="10"/>
-      <c r="F1006" s="10"/>
-      <c r="G1006" s="10"/>
-      <c r="H1006" s="10"/>
-      <c r="I1006" s="10"/>
-      <c r="J1006" s="10"/>
-      <c r="K1006" s="10"/>
-      <c r="L1006" s="10"/>
-      <c r="M1006" s="10"/>
-      <c r="N1006" s="10"/>
-      <c r="O1006" s="10"/>
-      <c r="P1006" s="10"/>
-      <c r="Q1006" s="10"/>
-      <c r="R1006" s="10"/>
-      <c r="S1006" s="10"/>
-      <c r="T1006" s="10"/>
-      <c r="U1006" s="10"/>
-      <c r="V1006" s="10"/>
-      <c r="W1006" s="10"/>
-      <c r="X1006" s="10"/>
-      <c r="Y1006" s="10"/>
-      <c r="Z1006" s="10"/>
-      <c r="AA1006" s="10"/>
-      <c r="AB1006" s="10"/>
-      <c r="AC1006" s="10"/>
-      <c r="AD1006" s="10"/>
-      <c r="AE1006" s="10"/>
-      <c r="AF1006" s="10"/>
-      <c r="AG1006" s="10"/>
-      <c r="AH1006" s="10"/>
-      <c r="AI1006" s="10"/>
-    </row>
-    <row r="1007" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1007" s="10"/>
-      <c r="B1007" s="10"/>
-      <c r="C1007" s="10"/>
-      <c r="D1007" s="10"/>
-      <c r="E1007" s="10"/>
-      <c r="F1007" s="10"/>
-      <c r="G1007" s="10"/>
-      <c r="H1007" s="10"/>
-      <c r="I1007" s="10"/>
-      <c r="J1007" s="10"/>
-      <c r="K1007" s="10"/>
-      <c r="L1007" s="10"/>
-      <c r="M1007" s="10"/>
-      <c r="N1007" s="10"/>
-      <c r="O1007" s="10"/>
-      <c r="P1007" s="10"/>
-      <c r="Q1007" s="10"/>
-      <c r="R1007" s="10"/>
-      <c r="S1007" s="10"/>
-      <c r="T1007" s="10"/>
-      <c r="U1007" s="10"/>
-      <c r="V1007" s="10"/>
-      <c r="W1007" s="10"/>
-      <c r="X1007" s="10"/>
-      <c r="Y1007" s="10"/>
-      <c r="Z1007" s="10"/>
-      <c r="AA1007" s="10"/>
-      <c r="AB1007" s="10"/>
-      <c r="AC1007" s="10"/>
-      <c r="AD1007" s="10"/>
-      <c r="AE1007" s="10"/>
-      <c r="AF1007" s="10"/>
-      <c r="AG1007" s="10"/>
-      <c r="AH1007" s="10"/>
-      <c r="AI1007" s="10"/>
-    </row>
-    <row r="1008" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1008" s="10"/>
-      <c r="B1008" s="10"/>
-      <c r="C1008" s="10"/>
-      <c r="D1008" s="10"/>
-      <c r="E1008" s="10"/>
-      <c r="F1008" s="10"/>
-      <c r="G1008" s="10"/>
-      <c r="H1008" s="10"/>
-      <c r="I1008" s="10"/>
-      <c r="J1008" s="10"/>
-      <c r="K1008" s="10"/>
-      <c r="L1008" s="10"/>
-      <c r="M1008" s="10"/>
-      <c r="N1008" s="10"/>
-      <c r="O1008" s="10"/>
-      <c r="P1008" s="10"/>
-      <c r="Q1008" s="10"/>
-      <c r="R1008" s="10"/>
-      <c r="S1008" s="10"/>
-      <c r="T1008" s="10"/>
-      <c r="U1008" s="10"/>
-      <c r="V1008" s="10"/>
-      <c r="W1008" s="10"/>
-      <c r="X1008" s="10"/>
-      <c r="Y1008" s="10"/>
-      <c r="Z1008" s="10"/>
-      <c r="AA1008" s="10"/>
-      <c r="AB1008" s="10"/>
-      <c r="AC1008" s="10"/>
-      <c r="AD1008" s="10"/>
-      <c r="AE1008" s="10"/>
-      <c r="AF1008" s="10"/>
-      <c r="AG1008" s="10"/>
-      <c r="AH1008" s="10"/>
-      <c r="AI1008" s="10"/>
-    </row>
-    <row r="1009" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1009" s="10"/>
-      <c r="B1009" s="10"/>
-      <c r="C1009" s="10"/>
-      <c r="D1009" s="10"/>
-      <c r="E1009" s="10"/>
-      <c r="F1009" s="10"/>
-      <c r="G1009" s="10"/>
-      <c r="H1009" s="10"/>
-      <c r="I1009" s="10"/>
-      <c r="J1009" s="10"/>
-      <c r="K1009" s="10"/>
-      <c r="L1009" s="10"/>
-      <c r="M1009" s="10"/>
-      <c r="N1009" s="10"/>
-      <c r="O1009" s="10"/>
-      <c r="P1009" s="10"/>
-      <c r="Q1009" s="10"/>
-      <c r="R1009" s="10"/>
-      <c r="S1009" s="10"/>
-      <c r="T1009" s="10"/>
-      <c r="U1009" s="10"/>
-      <c r="V1009" s="10"/>
-      <c r="W1009" s="10"/>
-      <c r="X1009" s="10"/>
-      <c r="Y1009" s="10"/>
-      <c r="Z1009" s="10"/>
-      <c r="AA1009" s="10"/>
-      <c r="AB1009" s="10"/>
-      <c r="AC1009" s="10"/>
-      <c r="AD1009" s="10"/>
-      <c r="AE1009" s="10"/>
-      <c r="AF1009" s="10"/>
-      <c r="AG1009" s="10"/>
-      <c r="AH1009" s="10"/>
-      <c r="AI1009" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -40132,14 +39937,14 @@
     </row>
     <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-09-22 15-41</v>
+        <v>2022-10-28 23-51</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>

--- a/forms/contact/chw_area-edit.xlsx
+++ b/forms/contact/chw_area-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="156">
   <si>
     <t>list_name</t>
   </si>
@@ -482,9 +482,6 @@
     <t>contact:chw_area:edit</t>
   </si>
   <si>
-    <t>contact_name</t>
-  </si>
-  <si>
     <t>chw_area_name</t>
   </si>
   <si>
@@ -896,7 +893,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1137,7 +1134,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>38</v>
@@ -1706,7 +1703,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>86</v>
@@ -2165,7 +2162,7 @@
     </row>
     <row r="28" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>117</v>
@@ -2217,7 +2214,7 @@
     </row>
     <row r="29" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>121</v>
@@ -2935,7 +2932,7 @@
         <v>65</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>144</v>
@@ -39944,7 +39941,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-28 23-51</v>
+        <v>2022-10-31 19-00</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>

--- a/forms/contact/chw_area-edit.xlsx
+++ b/forms/contact/chw_area-edit.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="155">
   <si>
     <t>list_name</t>
   </si>
@@ -482,9 +482,6 @@
     <t>contact:chw_area:edit</t>
   </si>
   <si>
-    <t>chw_area_name</t>
-  </si>
-  <si>
     <t>phonenumber</t>
   </si>
   <si>
@@ -890,10 +887,10 @@
   <dimension ref="A1:AI1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1131,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>38</v>
@@ -2162,7 +2159,7 @@
     </row>
     <row r="28" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>117</v>
@@ -2214,7 +2211,7 @@
     </row>
     <row r="29" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>121</v>
@@ -2932,7 +2929,7 @@
         <v>65</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="C45" s="20" t="s">
         <v>144</v>
@@ -39941,7 +39938,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 19-00</v>
+        <v>2022-10-31 21-09</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>

--- a/forms/contact/chw_area-edit.xlsx
+++ b/forms/contact/chw_area-edit.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms for Review Jane Nov 14 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D2AB65-8EBB-4147-860A-88A3B413413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8100"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
   <si>
     <t>list_name</t>
   </si>
@@ -53,43 +64,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Ndio</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Hapana</t>
-  </si>
-  <si>
     <t>pages</t>
   </si>
   <si>
-    <t>male_female</t>
-  </si>
-  <si>
     <t>en</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Kike</t>
   </si>
   <si>
     <t>required</t>
@@ -140,15 +118,6 @@
     <t>NO_LABEL</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Kiume</t>
-  </si>
-  <si>
     <t>contact</t>
   </si>
   <si>
@@ -168,51 +137,6 @@
   </si>
   <si>
     <t>Ruka hatua ii</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>primary</t>
-  </si>
-  <si>
-    <t>Primary</t>
-  </si>
-  <si>
-    <t>secondary</t>
-  </si>
-  <si>
-    <t>Secondary</t>
-  </si>
-  <si>
-    <t>college</t>
-  </si>
-  <si>
-    <t>College</t>
-  </si>
-  <si>
-    <t>university</t>
-  </si>
-  <si>
-    <t>University</t>
-  </si>
-  <si>
-    <t>dob_method</t>
-  </si>
-  <si>
-    <t>calendar</t>
-  </si>
-  <si>
-    <t>Date of birth with calendar</t>
-  </si>
-  <si>
-    <t>approx</t>
-  </si>
-  <si>
-    <t>Date of birth with current age</t>
   </si>
   <si>
     <t>user</t>
@@ -290,88 +214,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>select_one male_female</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Jinsia</t>
-  </si>
-  <si>
-    <t>horizontal</t>
-  </si>
-  <si>
     <t>calculate</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>format-date-time(${dob_raw},"%Y-%m-%d")</t>
-  </si>
-  <si>
-    <t>ephemeral_dob</t>
-  </si>
-  <si>
-    <t>select_one dob_method</t>
-  </si>
-  <si>
-    <t>contact_dob_method</t>
-  </si>
-  <si>
-    <t>Method to select date of birth</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>dob_calendar</t>
-  </si>
-  <si>
-    <t>selected(../contact_dob_method,'calendar')</t>
-  </si>
-  <si>
-    <t>.&lt;today()</t>
-  </si>
-  <si>
-    <t>Date must be before today</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>selected(../contact_dob_method,'approx')</t>
-  </si>
-  <si>
-    <t>. &gt; 0 and . &lt; 120</t>
-  </si>
-  <si>
-    <t>Age must be between 0 and 120</t>
-  </si>
-  <si>
-    <t>dob_raw</t>
-  </si>
-  <si>
-    <t>if(selected( ../contact_dob_method,'calendar'),  ../dob_calendar, format-date-time( decimal-date-time( today() ) - (365.25 * ../age) , "%Y-%m-%d") )</t>
-  </si>
-  <si>
-    <t>dob_iso</t>
-  </si>
-  <si>
-    <t>decimal-date-time(../dob_raw)</t>
   </si>
   <si>
     <t>phone</t>
@@ -402,24 +245,6 @@
   </si>
   <si>
     <t>Kitambulisho cha nje</t>
-  </si>
-  <si>
-    <t>select_one education</t>
-  </si>
-  <si>
-    <t>education_level</t>
-  </si>
-  <si>
-    <t>Education level</t>
-  </si>
-  <si>
-    <t>date_joined</t>
-  </si>
-  <si>
-    <t>Date joined</t>
-  </si>
-  <si>
-    <t>. &lt; today()</t>
   </si>
   <si>
     <t>Notes</t>
@@ -461,12 +286,6 @@
     <t>Namba ya nje</t>
   </si>
   <si>
-    <t>village</t>
-  </si>
-  <si>
-    <t>Village</t>
-  </si>
-  <si>
     <t>if(selected(${create_new_person},'none'), "", "NEW")</t>
   </si>
   <si>
@@ -487,11 +306,17 @@
   <si>
     <t>facility_id</t>
   </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -528,6 +353,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -614,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -638,8 +464,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -883,14 +707,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI1005"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -929,43 +753,43 @@
         <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
@@ -988,16 +812,16 @@
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12" t="b">
@@ -1036,16 +860,16 @@
     </row>
     <row r="3" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -1081,16 +905,16 @@
     </row>
     <row r="4" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -1105,7 +929,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
@@ -1127,62 +951,62 @@
       <c r="AI4" s="12"/>
     </row>
     <row r="5" spans="1:35" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>65</v>
+      <c r="A5" s="34" t="s">
+        <v>36</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>154</v>
+      <c r="B5" s="34" t="s">
+        <v>90</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>38</v>
+      <c r="C5" s="35" t="s">
+        <v>27</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>38</v>
+      <c r="D5" s="35" t="s">
+        <v>27</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
     </row>
     <row r="6" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -1197,7 +1021,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
@@ -1220,7 +1044,7 @@
     </row>
     <row r="7" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -1259,7 +1083,7 @@
     </row>
     <row r="8" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -1300,7 +1124,7 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="17"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1310,8 +1134,8 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -1334,145 +1158,145 @@
       <c r="AI9" s="10"/>
     </row>
     <row r="10" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>36</v>
+      <c r="A10" s="17" t="s">
+        <v>25</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>70</v>
+      <c r="B10" s="17" t="s">
+        <v>41</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>38</v>
+      <c r="C10" s="18" t="s">
+        <v>27</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>38</v>
+      <c r="D10" s="18" t="s">
+        <v>27</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20" t="s">
-        <v>71</v>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>42</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
     </row>
     <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>72</v>
+      <c r="A11" s="17" t="s">
+        <v>43</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>73</v>
+      <c r="B11" s="17" t="s">
+        <v>44</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>74</v>
+      <c r="C11" s="18" t="s">
+        <v>45</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>75</v>
+      <c r="D11" s="18" t="s">
+        <v>46</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>76</v>
+      <c r="E11" s="18" t="s">
+        <v>47</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20" t="s">
-        <v>77</v>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
+        <v>48</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
     </row>
     <row r="12" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>69</v>
+      <c r="A12" s="17" t="s">
+        <v>40</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
     </row>
     <row r="13" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="17"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -1482,8 +1306,8 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="18"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -1506,1945 +1330,1849 @@
       <c r="AI13" s="10"/>
     </row>
     <row r="14" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+    </row>
+    <row r="15" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+    </row>
+    <row r="16" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+    </row>
+    <row r="17" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+    </row>
+    <row r="18" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>42</v>
+      <c r="B18" s="17" t="s">
+        <v>3</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>78</v>
+      <c r="C18" s="18" t="s">
+        <v>57</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>79</v>
+      <c r="D18" s="18" t="s">
+        <v>58</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20" t="s">
-        <v>80</v>
+      <c r="E18" s="18" t="s">
+        <v>47</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>71</v>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18" t="s">
+        <v>59</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="20"/>
-    </row>
-    <row r="15" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>81</v>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+    </row>
+    <row r="19" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>89</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>82</v>
+      <c r="B19" s="17" t="s">
+        <v>61</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>38</v>
+      <c r="C19" s="18" t="s">
+        <v>62</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>38</v>
+      <c r="D19" s="18" t="s">
+        <v>63</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20" t="s">
-        <v>83</v>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
+        <v>51</v>
       </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20"/>
-      <c r="AG15" s="20"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="20"/>
-    </row>
-    <row r="16" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="22" t="s">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="28" t="b">
+        <f t="shared" ref="I19:I20" si="0">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>38</v>
+      <c r="J19" s="18" t="s">
+        <v>64</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>38</v>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+    </row>
+    <row r="20" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>89</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-    </row>
-    <row r="17" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-    </row>
-    <row r="18" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="B20" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>3</v>
+      <c r="C20" s="18" t="s">
+        <v>66</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>86</v>
+      <c r="D20" s="18" t="s">
+        <v>67</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>87</v>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18" t="s">
+        <v>51</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="20"/>
-    </row>
-    <row r="19" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="20"/>
-    </row>
-    <row r="20" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20"/>
-      <c r="AH20" s="20"/>
-      <c r="AI20" s="20"/>
-    </row>
-    <row r="21" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-    </row>
-    <row r="22" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
-    </row>
-    <row r="23" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
-      <c r="AH23" s="20"/>
-      <c r="AI23" s="20"/>
-    </row>
-    <row r="24" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="20"/>
-      <c r="AI24" s="20"/>
-    </row>
-    <row r="25" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20"/>
-      <c r="AG25" s="20"/>
-      <c r="AH25" s="20"/>
-      <c r="AI25" s="20"/>
-    </row>
-    <row r="26" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
-      <c r="AG26" s="20"/>
-      <c r="AH26" s="20"/>
-      <c r="AI26" s="20"/>
-    </row>
-    <row r="27" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="20"/>
-      <c r="AG27" s="20"/>
-      <c r="AH27" s="20"/>
-      <c r="AI27" s="20"/>
-    </row>
-    <row r="28" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="30" t="b">
-        <f t="shared" ref="I28:I29" si="0">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="20"/>
-      <c r="AI28" s="20"/>
-    </row>
-    <row r="29" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="30" t="b">
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="28" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J29" s="20" t="s">
-        <v>120</v>
+      <c r="J20" s="18" t="s">
+        <v>64</v>
       </c>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20"/>
-      <c r="AG29" s="20"/>
-      <c r="AH29" s="20"/>
-      <c r="AI29" s="20"/>
-    </row>
-    <row r="30" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
-        <v>65</v>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+    </row>
+    <row r="21" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>36</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>124</v>
+      <c r="B21" s="17" t="s">
+        <v>68</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>125</v>
+      <c r="C21" s="18" t="s">
+        <v>69</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>126</v>
+      <c r="D21" s="18" t="s">
+        <v>70</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="18"/>
+    </row>
+    <row r="22" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+    </row>
+    <row r="23" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+    </row>
+    <row r="24" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
+    </row>
+    <row r="25" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+    </row>
+    <row r="26" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="20"/>
-      <c r="AH30" s="20"/>
-      <c r="AI30" s="20"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
+    </row>
+    <row r="27" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
+    </row>
+    <row r="28" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
+    </row>
+    <row r="29" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+    </row>
+    <row r="30" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="18"/>
     </row>
     <row r="31" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>127</v>
+      <c r="A31" s="29" t="s">
+        <v>52</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>128</v>
+      <c r="B31" s="17" t="s">
+        <v>53</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>129</v>
+      <c r="C31" s="18" t="s">
+        <v>27</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
-      <c r="AF31" s="20"/>
-      <c r="AG31" s="20"/>
-      <c r="AH31" s="20"/>
-      <c r="AI31" s="20"/>
+      <c r="D31" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="18"/>
     </row>
     <row r="32" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>102</v>
+      <c r="A32" s="29" t="s">
+        <v>52</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>130</v>
+      <c r="B32" s="17" t="s">
+        <v>1</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>131</v>
+      <c r="C32" s="18" t="s">
+        <v>27</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20" t="s">
-        <v>132</v>
+      <c r="D32" s="18" t="s">
+        <v>27</v>
       </c>
-      <c r="J32" s="20" t="s">
-        <v>106</v>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="26" t="s">
+        <v>28</v>
       </c>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="20"/>
-      <c r="AH32" s="20"/>
-      <c r="AI32" s="20"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18"/>
+      <c r="AG32" s="18"/>
+      <c r="AH32" s="18"/>
+      <c r="AI32" s="18"/>
     </row>
     <row r="33" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>65</v>
+      <c r="A33" s="30" t="s">
+        <v>52</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>35</v>
+      <c r="B33" s="25" t="s">
+        <v>55</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>133</v>
+      <c r="C33" s="27" t="s">
+        <v>27</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>134</v>
+      <c r="D33" s="27" t="s">
+        <v>27</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20" t="s">
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="18"/>
+      <c r="AI33" s="18"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="18"/>
+      <c r="AI34" s="18"/>
+    </row>
+    <row r="35" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
+    </row>
+    <row r="36" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18"/>
+    </row>
+    <row r="37" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="18"/>
+    </row>
+    <row r="38" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="18"/>
+    </row>
+    <row r="39" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18"/>
+      <c r="AI39" s="18"/>
+    </row>
+    <row r="40" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="18"/>
+      <c r="AF40" s="18"/>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="18"/>
+      <c r="AI40" s="18"/>
+    </row>
+    <row r="41" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18"/>
+      <c r="AE41" s="18"/>
+      <c r="AF41" s="18"/>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="18"/>
+      <c r="AI41" s="18"/>
+    </row>
+    <row r="42" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="18"/>
+      <c r="AI42" s="18"/>
+    </row>
+    <row r="43" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G33" s="20" t="s">
-        <v>135</v>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="18"/>
+      <c r="AB43" s="18"/>
+      <c r="AC43" s="18"/>
+      <c r="AD43" s="18"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="18"/>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="18"/>
+      <c r="AI43" s="18"/>
+    </row>
+    <row r="44" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>40</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="20"/>
-      <c r="AF33" s="20"/>
-      <c r="AG33" s="20"/>
-      <c r="AH33" s="20"/>
-      <c r="AI33" s="20"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
-        <v>36</v>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="18"/>
+      <c r="AB44" s="18"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="18"/>
+      <c r="AG44" s="18"/>
+      <c r="AH44" s="18"/>
+      <c r="AI44" s="18"/>
+    </row>
+    <row r="45" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>40</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
-      <c r="AI34" s="20"/>
-    </row>
-    <row r="35" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="20"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="20"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
-      <c r="AD35" s="20"/>
-      <c r="AE35" s="20"/>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="20"/>
-      <c r="AH35" s="20"/>
-      <c r="AI35" s="20"/>
-    </row>
-    <row r="36" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="20"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="20"/>
-      <c r="AH36" s="20"/>
-      <c r="AI36" s="20"/>
-    </row>
-    <row r="37" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
-      <c r="AH37" s="20"/>
-      <c r="AI37" s="20"/>
-    </row>
-    <row r="38" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="20"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="20"/>
-      <c r="AF38" s="20"/>
-      <c r="AG38" s="20"/>
-      <c r="AH38" s="20"/>
-      <c r="AI38" s="20"/>
-    </row>
-    <row r="39" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="20"/>
-      <c r="AG39" s="20"/>
-      <c r="AH39" s="20"/>
-      <c r="AI39" s="20"/>
-    </row>
-    <row r="40" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="9"/>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="10"/>
-      <c r="AF40" s="10"/>
-      <c r="AG40" s="10"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="10"/>
-    </row>
-    <row r="41" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="20"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="20"/>
-      <c r="AF41" s="20"/>
-      <c r="AG41" s="20"/>
-      <c r="AH41" s="20"/>
-      <c r="AI41" s="20"/>
-    </row>
-    <row r="42" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="20"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
-      <c r="AD42" s="20"/>
-      <c r="AE42" s="20"/>
-      <c r="AF42" s="20"/>
-      <c r="AG42" s="20"/>
-      <c r="AH42" s="20"/>
-      <c r="AI42" s="20"/>
-    </row>
-    <row r="43" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="20"/>
-      <c r="AD43" s="20"/>
-      <c r="AE43" s="20"/>
-      <c r="AF43" s="20"/>
-      <c r="AG43" s="20"/>
-      <c r="AH43" s="20"/>
-      <c r="AI43" s="20"/>
-    </row>
-    <row r="44" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="20"/>
-      <c r="Y44" s="20"/>
-      <c r="Z44" s="20"/>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="20"/>
-      <c r="AC44" s="20"/>
-      <c r="AD44" s="20"/>
-      <c r="AE44" s="20"/>
-      <c r="AF44" s="20"/>
-      <c r="AG44" s="20"/>
-      <c r="AH44" s="20"/>
-      <c r="AI44" s="20"/>
-    </row>
-    <row r="45" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="20"/>
-      <c r="AD45" s="20"/>
-      <c r="AE45" s="20"/>
-      <c r="AF45" s="20"/>
-      <c r="AG45" s="20"/>
-      <c r="AH45" s="20"/>
-      <c r="AI45" s="20"/>
-    </row>
-    <row r="46" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
-      <c r="X46" s="20"/>
-      <c r="Y46" s="20"/>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="20"/>
-      <c r="AB46" s="20"/>
-      <c r="AC46" s="20"/>
-      <c r="AD46" s="20"/>
-      <c r="AE46" s="20"/>
-      <c r="AF46" s="20"/>
-      <c r="AG46" s="20"/>
-      <c r="AH46" s="20"/>
-      <c r="AI46" s="20"/>
-    </row>
-    <row r="47" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="34"/>
-      <c r="AD47" s="34"/>
-      <c r="AE47" s="20"/>
-      <c r="AF47" s="20"/>
-      <c r="AG47" s="20"/>
-      <c r="AH47" s="20"/>
-      <c r="AI47" s="20"/>
-    </row>
-    <row r="48" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20"/>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="20"/>
-      <c r="AC48" s="20"/>
-      <c r="AD48" s="20"/>
-      <c r="AE48" s="20"/>
-      <c r="AF48" s="20"/>
-      <c r="AG48" s="20"/>
-      <c r="AH48" s="20"/>
-      <c r="AI48" s="20"/>
-    </row>
-    <row r="49" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20"/>
-      <c r="AA49" s="20"/>
-      <c r="AB49" s="20"/>
-      <c r="AC49" s="20"/>
-      <c r="AD49" s="20"/>
-      <c r="AE49" s="20"/>
-      <c r="AF49" s="20"/>
-      <c r="AG49" s="20"/>
-      <c r="AH49" s="20"/>
-      <c r="AI49" s="20"/>
-    </row>
-    <row r="50" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
-      <c r="X50" s="20"/>
-      <c r="Y50" s="20"/>
-      <c r="Z50" s="20"/>
-      <c r="AA50" s="20"/>
-      <c r="AB50" s="20"/>
-      <c r="AC50" s="20"/>
-      <c r="AD50" s="20"/>
-      <c r="AE50" s="20"/>
-      <c r="AF50" s="20"/>
-      <c r="AG50" s="20"/>
-      <c r="AH50" s="20"/>
-      <c r="AI50" s="20"/>
-    </row>
-    <row r="51" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20"/>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="20"/>
-      <c r="AA51" s="20"/>
-      <c r="AB51" s="20"/>
-      <c r="AC51" s="20"/>
-      <c r="AD51" s="20"/>
-      <c r="AE51" s="20"/>
-      <c r="AF51" s="20"/>
-      <c r="AG51" s="20"/>
-      <c r="AH51" s="20"/>
-      <c r="AI51" s="20"/>
-    </row>
-    <row r="52" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="20"/>
-      <c r="Y52" s="20"/>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="20"/>
-      <c r="AB52" s="20"/>
-      <c r="AC52" s="20"/>
-      <c r="AD52" s="20"/>
-      <c r="AE52" s="20"/>
-      <c r="AF52" s="20"/>
-      <c r="AG52" s="20"/>
-      <c r="AH52" s="20"/>
-      <c r="AI52" s="20"/>
-    </row>
-    <row r="53" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="20"/>
-      <c r="Y53" s="20"/>
-      <c r="Z53" s="20"/>
-      <c r="AA53" s="20"/>
-      <c r="AB53" s="20"/>
-      <c r="AC53" s="20"/>
-      <c r="AD53" s="20"/>
-      <c r="AE53" s="20"/>
-      <c r="AF53" s="20"/>
-      <c r="AG53" s="20"/>
-      <c r="AH53" s="20"/>
-      <c r="AI53" s="20"/>
-    </row>
-    <row r="54" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="20"/>
-      <c r="AB54" s="20"/>
-      <c r="AC54" s="20"/>
-      <c r="AD54" s="20"/>
-      <c r="AE54" s="20"/>
-      <c r="AF54" s="20"/>
-      <c r="AG54" s="20"/>
-      <c r="AH54" s="20"/>
-      <c r="AI54" s="20"/>
-    </row>
-    <row r="55" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="20"/>
-      <c r="X55" s="20"/>
-      <c r="Y55" s="20"/>
-      <c r="Z55" s="20"/>
-      <c r="AA55" s="20"/>
-      <c r="AB55" s="20"/>
-      <c r="AC55" s="20"/>
-      <c r="AD55" s="20"/>
-      <c r="AE55" s="20"/>
-      <c r="AF55" s="20"/>
-      <c r="AG55" s="20"/>
-      <c r="AH55" s="20"/>
-      <c r="AI55" s="20"/>
-    </row>
-    <row r="56" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="20"/>
-      <c r="X56" s="20"/>
-      <c r="Y56" s="20"/>
-      <c r="Z56" s="20"/>
-      <c r="AA56" s="20"/>
-      <c r="AB56" s="20"/>
-      <c r="AC56" s="20"/>
-      <c r="AD56" s="20"/>
-      <c r="AE56" s="20"/>
-      <c r="AF56" s="20"/>
-      <c r="AG56" s="20"/>
-      <c r="AH56" s="20"/>
-      <c r="AI56" s="20"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="18"/>
+      <c r="AA45" s="18"/>
+      <c r="AB45" s="18"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="18"/>
+      <c r="AE45" s="18"/>
+      <c r="AF45" s="18"/>
+      <c r="AG45" s="18"/>
+      <c r="AH45" s="18"/>
+      <c r="AI45" s="18"/>
+    </row>
+    <row r="46" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="10"/>
+      <c r="AG46" s="10"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
+    </row>
+    <row r="47" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+    </row>
+    <row r="48" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+    </row>
+    <row r="49" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="10"/>
+      <c r="AG49" s="10"/>
+      <c r="AH49" s="10"/>
+      <c r="AI49" s="10"/>
+    </row>
+    <row r="50" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AE50" s="10"/>
+      <c r="AF50" s="10"/>
+      <c r="AG50" s="10"/>
+      <c r="AH50" s="10"/>
+      <c r="AI50" s="10"/>
+    </row>
+    <row r="51" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+    </row>
+    <row r="52" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="10"/>
+    </row>
+    <row r="53" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10"/>
+    </row>
+    <row r="54" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="10"/>
+      <c r="AH54" s="10"/>
+      <c r="AI54" s="10"/>
+    </row>
+    <row r="55" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="10"/>
+      <c r="AH55" s="10"/>
+      <c r="AI55" s="10"/>
+    </row>
+    <row r="56" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="10"/>
+      <c r="AI56" s="10"/>
     </row>
     <row r="57" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10"/>
@@ -38152,413 +37880,6 @@
       <c r="AH994" s="10"/>
       <c r="AI994" s="10"/>
     </row>
-    <row r="995" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A995" s="10"/>
-      <c r="B995" s="10"/>
-      <c r="C995" s="10"/>
-      <c r="D995" s="10"/>
-      <c r="E995" s="10"/>
-      <c r="F995" s="10"/>
-      <c r="G995" s="10"/>
-      <c r="H995" s="10"/>
-      <c r="I995" s="10"/>
-      <c r="J995" s="10"/>
-      <c r="K995" s="10"/>
-      <c r="L995" s="10"/>
-      <c r="M995" s="10"/>
-      <c r="N995" s="10"/>
-      <c r="O995" s="10"/>
-      <c r="P995" s="10"/>
-      <c r="Q995" s="10"/>
-      <c r="R995" s="10"/>
-      <c r="S995" s="10"/>
-      <c r="T995" s="10"/>
-      <c r="U995" s="10"/>
-      <c r="V995" s="10"/>
-      <c r="W995" s="10"/>
-      <c r="X995" s="10"/>
-      <c r="Y995" s="10"/>
-      <c r="Z995" s="10"/>
-      <c r="AA995" s="10"/>
-      <c r="AB995" s="10"/>
-      <c r="AC995" s="10"/>
-      <c r="AD995" s="10"/>
-      <c r="AE995" s="10"/>
-      <c r="AF995" s="10"/>
-      <c r="AG995" s="10"/>
-      <c r="AH995" s="10"/>
-      <c r="AI995" s="10"/>
-    </row>
-    <row r="996" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A996" s="10"/>
-      <c r="B996" s="10"/>
-      <c r="C996" s="10"/>
-      <c r="D996" s="10"/>
-      <c r="E996" s="10"/>
-      <c r="F996" s="10"/>
-      <c r="G996" s="10"/>
-      <c r="H996" s="10"/>
-      <c r="I996" s="10"/>
-      <c r="J996" s="10"/>
-      <c r="K996" s="10"/>
-      <c r="L996" s="10"/>
-      <c r="M996" s="10"/>
-      <c r="N996" s="10"/>
-      <c r="O996" s="10"/>
-      <c r="P996" s="10"/>
-      <c r="Q996" s="10"/>
-      <c r="R996" s="10"/>
-      <c r="S996" s="10"/>
-      <c r="T996" s="10"/>
-      <c r="U996" s="10"/>
-      <c r="V996" s="10"/>
-      <c r="W996" s="10"/>
-      <c r="X996" s="10"/>
-      <c r="Y996" s="10"/>
-      <c r="Z996" s="10"/>
-      <c r="AA996" s="10"/>
-      <c r="AB996" s="10"/>
-      <c r="AC996" s="10"/>
-      <c r="AD996" s="10"/>
-      <c r="AE996" s="10"/>
-      <c r="AF996" s="10"/>
-      <c r="AG996" s="10"/>
-      <c r="AH996" s="10"/>
-      <c r="AI996" s="10"/>
-    </row>
-    <row r="997" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A997" s="10"/>
-      <c r="B997" s="10"/>
-      <c r="C997" s="10"/>
-      <c r="D997" s="10"/>
-      <c r="E997" s="10"/>
-      <c r="F997" s="10"/>
-      <c r="G997" s="10"/>
-      <c r="H997" s="10"/>
-      <c r="I997" s="10"/>
-      <c r="J997" s="10"/>
-      <c r="K997" s="10"/>
-      <c r="L997" s="10"/>
-      <c r="M997" s="10"/>
-      <c r="N997" s="10"/>
-      <c r="O997" s="10"/>
-      <c r="P997" s="10"/>
-      <c r="Q997" s="10"/>
-      <c r="R997" s="10"/>
-      <c r="S997" s="10"/>
-      <c r="T997" s="10"/>
-      <c r="U997" s="10"/>
-      <c r="V997" s="10"/>
-      <c r="W997" s="10"/>
-      <c r="X997" s="10"/>
-      <c r="Y997" s="10"/>
-      <c r="Z997" s="10"/>
-      <c r="AA997" s="10"/>
-      <c r="AB997" s="10"/>
-      <c r="AC997" s="10"/>
-      <c r="AD997" s="10"/>
-      <c r="AE997" s="10"/>
-      <c r="AF997" s="10"/>
-      <c r="AG997" s="10"/>
-      <c r="AH997" s="10"/>
-      <c r="AI997" s="10"/>
-    </row>
-    <row r="998" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A998" s="10"/>
-      <c r="B998" s="10"/>
-      <c r="C998" s="10"/>
-      <c r="D998" s="10"/>
-      <c r="E998" s="10"/>
-      <c r="F998" s="10"/>
-      <c r="G998" s="10"/>
-      <c r="H998" s="10"/>
-      <c r="I998" s="10"/>
-      <c r="J998" s="10"/>
-      <c r="K998" s="10"/>
-      <c r="L998" s="10"/>
-      <c r="M998" s="10"/>
-      <c r="N998" s="10"/>
-      <c r="O998" s="10"/>
-      <c r="P998" s="10"/>
-      <c r="Q998" s="10"/>
-      <c r="R998" s="10"/>
-      <c r="S998" s="10"/>
-      <c r="T998" s="10"/>
-      <c r="U998" s="10"/>
-      <c r="V998" s="10"/>
-      <c r="W998" s="10"/>
-      <c r="X998" s="10"/>
-      <c r="Y998" s="10"/>
-      <c r="Z998" s="10"/>
-      <c r="AA998" s="10"/>
-      <c r="AB998" s="10"/>
-      <c r="AC998" s="10"/>
-      <c r="AD998" s="10"/>
-      <c r="AE998" s="10"/>
-      <c r="AF998" s="10"/>
-      <c r="AG998" s="10"/>
-      <c r="AH998" s="10"/>
-      <c r="AI998" s="10"/>
-    </row>
-    <row r="999" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A999" s="10"/>
-      <c r="B999" s="10"/>
-      <c r="C999" s="10"/>
-      <c r="D999" s="10"/>
-      <c r="E999" s="10"/>
-      <c r="F999" s="10"/>
-      <c r="G999" s="10"/>
-      <c r="H999" s="10"/>
-      <c r="I999" s="10"/>
-      <c r="J999" s="10"/>
-      <c r="K999" s="10"/>
-      <c r="L999" s="10"/>
-      <c r="M999" s="10"/>
-      <c r="N999" s="10"/>
-      <c r="O999" s="10"/>
-      <c r="P999" s="10"/>
-      <c r="Q999" s="10"/>
-      <c r="R999" s="10"/>
-      <c r="S999" s="10"/>
-      <c r="T999" s="10"/>
-      <c r="U999" s="10"/>
-      <c r="V999" s="10"/>
-      <c r="W999" s="10"/>
-      <c r="X999" s="10"/>
-      <c r="Y999" s="10"/>
-      <c r="Z999" s="10"/>
-      <c r="AA999" s="10"/>
-      <c r="AB999" s="10"/>
-      <c r="AC999" s="10"/>
-      <c r="AD999" s="10"/>
-      <c r="AE999" s="10"/>
-      <c r="AF999" s="10"/>
-      <c r="AG999" s="10"/>
-      <c r="AH999" s="10"/>
-      <c r="AI999" s="10"/>
-    </row>
-    <row r="1000" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1000" s="10"/>
-      <c r="B1000" s="10"/>
-      <c r="C1000" s="10"/>
-      <c r="D1000" s="10"/>
-      <c r="E1000" s="10"/>
-      <c r="F1000" s="10"/>
-      <c r="G1000" s="10"/>
-      <c r="H1000" s="10"/>
-      <c r="I1000" s="10"/>
-      <c r="J1000" s="10"/>
-      <c r="K1000" s="10"/>
-      <c r="L1000" s="10"/>
-      <c r="M1000" s="10"/>
-      <c r="N1000" s="10"/>
-      <c r="O1000" s="10"/>
-      <c r="P1000" s="10"/>
-      <c r="Q1000" s="10"/>
-      <c r="R1000" s="10"/>
-      <c r="S1000" s="10"/>
-      <c r="T1000" s="10"/>
-      <c r="U1000" s="10"/>
-      <c r="V1000" s="10"/>
-      <c r="W1000" s="10"/>
-      <c r="X1000" s="10"/>
-      <c r="Y1000" s="10"/>
-      <c r="Z1000" s="10"/>
-      <c r="AA1000" s="10"/>
-      <c r="AB1000" s="10"/>
-      <c r="AC1000" s="10"/>
-      <c r="AD1000" s="10"/>
-      <c r="AE1000" s="10"/>
-      <c r="AF1000" s="10"/>
-      <c r="AG1000" s="10"/>
-      <c r="AH1000" s="10"/>
-      <c r="AI1000" s="10"/>
-    </row>
-    <row r="1001" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1001" s="10"/>
-      <c r="B1001" s="10"/>
-      <c r="C1001" s="10"/>
-      <c r="D1001" s="10"/>
-      <c r="E1001" s="10"/>
-      <c r="F1001" s="10"/>
-      <c r="G1001" s="10"/>
-      <c r="H1001" s="10"/>
-      <c r="I1001" s="10"/>
-      <c r="J1001" s="10"/>
-      <c r="K1001" s="10"/>
-      <c r="L1001" s="10"/>
-      <c r="M1001" s="10"/>
-      <c r="N1001" s="10"/>
-      <c r="O1001" s="10"/>
-      <c r="P1001" s="10"/>
-      <c r="Q1001" s="10"/>
-      <c r="R1001" s="10"/>
-      <c r="S1001" s="10"/>
-      <c r="T1001" s="10"/>
-      <c r="U1001" s="10"/>
-      <c r="V1001" s="10"/>
-      <c r="W1001" s="10"/>
-      <c r="X1001" s="10"/>
-      <c r="Y1001" s="10"/>
-      <c r="Z1001" s="10"/>
-      <c r="AA1001" s="10"/>
-      <c r="AB1001" s="10"/>
-      <c r="AC1001" s="10"/>
-      <c r="AD1001" s="10"/>
-      <c r="AE1001" s="10"/>
-      <c r="AF1001" s="10"/>
-      <c r="AG1001" s="10"/>
-      <c r="AH1001" s="10"/>
-      <c r="AI1001" s="10"/>
-    </row>
-    <row r="1002" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1002" s="10"/>
-      <c r="B1002" s="10"/>
-      <c r="C1002" s="10"/>
-      <c r="D1002" s="10"/>
-      <c r="E1002" s="10"/>
-      <c r="F1002" s="10"/>
-      <c r="G1002" s="10"/>
-      <c r="H1002" s="10"/>
-      <c r="I1002" s="10"/>
-      <c r="J1002" s="10"/>
-      <c r="K1002" s="10"/>
-      <c r="L1002" s="10"/>
-      <c r="M1002" s="10"/>
-      <c r="N1002" s="10"/>
-      <c r="O1002" s="10"/>
-      <c r="P1002" s="10"/>
-      <c r="Q1002" s="10"/>
-      <c r="R1002" s="10"/>
-      <c r="S1002" s="10"/>
-      <c r="T1002" s="10"/>
-      <c r="U1002" s="10"/>
-      <c r="V1002" s="10"/>
-      <c r="W1002" s="10"/>
-      <c r="X1002" s="10"/>
-      <c r="Y1002" s="10"/>
-      <c r="Z1002" s="10"/>
-      <c r="AA1002" s="10"/>
-      <c r="AB1002" s="10"/>
-      <c r="AC1002" s="10"/>
-      <c r="AD1002" s="10"/>
-      <c r="AE1002" s="10"/>
-      <c r="AF1002" s="10"/>
-      <c r="AG1002" s="10"/>
-      <c r="AH1002" s="10"/>
-      <c r="AI1002" s="10"/>
-    </row>
-    <row r="1003" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1003" s="10"/>
-      <c r="B1003" s="10"/>
-      <c r="C1003" s="10"/>
-      <c r="D1003" s="10"/>
-      <c r="E1003" s="10"/>
-      <c r="F1003" s="10"/>
-      <c r="G1003" s="10"/>
-      <c r="H1003" s="10"/>
-      <c r="I1003" s="10"/>
-      <c r="J1003" s="10"/>
-      <c r="K1003" s="10"/>
-      <c r="L1003" s="10"/>
-      <c r="M1003" s="10"/>
-      <c r="N1003" s="10"/>
-      <c r="O1003" s="10"/>
-      <c r="P1003" s="10"/>
-      <c r="Q1003" s="10"/>
-      <c r="R1003" s="10"/>
-      <c r="S1003" s="10"/>
-      <c r="T1003" s="10"/>
-      <c r="U1003" s="10"/>
-      <c r="V1003" s="10"/>
-      <c r="W1003" s="10"/>
-      <c r="X1003" s="10"/>
-      <c r="Y1003" s="10"/>
-      <c r="Z1003" s="10"/>
-      <c r="AA1003" s="10"/>
-      <c r="AB1003" s="10"/>
-      <c r="AC1003" s="10"/>
-      <c r="AD1003" s="10"/>
-      <c r="AE1003" s="10"/>
-      <c r="AF1003" s="10"/>
-      <c r="AG1003" s="10"/>
-      <c r="AH1003" s="10"/>
-      <c r="AI1003" s="10"/>
-    </row>
-    <row r="1004" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1004" s="10"/>
-      <c r="B1004" s="10"/>
-      <c r="C1004" s="10"/>
-      <c r="D1004" s="10"/>
-      <c r="E1004" s="10"/>
-      <c r="F1004" s="10"/>
-      <c r="G1004" s="10"/>
-      <c r="H1004" s="10"/>
-      <c r="I1004" s="10"/>
-      <c r="J1004" s="10"/>
-      <c r="K1004" s="10"/>
-      <c r="L1004" s="10"/>
-      <c r="M1004" s="10"/>
-      <c r="N1004" s="10"/>
-      <c r="O1004" s="10"/>
-      <c r="P1004" s="10"/>
-      <c r="Q1004" s="10"/>
-      <c r="R1004" s="10"/>
-      <c r="S1004" s="10"/>
-      <c r="T1004" s="10"/>
-      <c r="U1004" s="10"/>
-      <c r="V1004" s="10"/>
-      <c r="W1004" s="10"/>
-      <c r="X1004" s="10"/>
-      <c r="Y1004" s="10"/>
-      <c r="Z1004" s="10"/>
-      <c r="AA1004" s="10"/>
-      <c r="AB1004" s="10"/>
-      <c r="AC1004" s="10"/>
-      <c r="AD1004" s="10"/>
-      <c r="AE1004" s="10"/>
-      <c r="AF1004" s="10"/>
-      <c r="AG1004" s="10"/>
-      <c r="AH1004" s="10"/>
-      <c r="AI1004" s="10"/>
-    </row>
-    <row r="1005" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1005" s="10"/>
-      <c r="B1005" s="10"/>
-      <c r="C1005" s="10"/>
-      <c r="D1005" s="10"/>
-      <c r="E1005" s="10"/>
-      <c r="F1005" s="10"/>
-      <c r="G1005" s="10"/>
-      <c r="H1005" s="10"/>
-      <c r="I1005" s="10"/>
-      <c r="J1005" s="10"/>
-      <c r="K1005" s="10"/>
-      <c r="L1005" s="10"/>
-      <c r="M1005" s="10"/>
-      <c r="N1005" s="10"/>
-      <c r="O1005" s="10"/>
-      <c r="P1005" s="10"/>
-      <c r="Q1005" s="10"/>
-      <c r="R1005" s="10"/>
-      <c r="S1005" s="10"/>
-      <c r="T1005" s="10"/>
-      <c r="U1005" s="10"/>
-      <c r="V1005" s="10"/>
-      <c r="W1005" s="10"/>
-      <c r="X1005" s="10"/>
-      <c r="Y1005" s="10"/>
-      <c r="Z1005" s="10"/>
-      <c r="AA1005" s="10"/>
-      <c r="AB1005" s="10"/>
-      <c r="AC1005" s="10"/>
-      <c r="AD1005" s="10"/>
-      <c r="AE1005" s="10"/>
-      <c r="AF1005" s="10"/>
-      <c r="AG1005" s="10"/>
-      <c r="AH1005" s="10"/>
-      <c r="AI1005" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -38566,10 +37887,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U999"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:U988"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -38613,16 +37936,16 @@
     </row>
     <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
+      <c r="B2" s="13" t="s">
+        <v>29</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
+      <c r="C2" s="14" t="s">
+        <v>30</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
+      <c r="D2" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -38644,16 +37967,16 @@
     </row>
     <row r="3" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
+      <c r="B3" s="13" t="s">
+        <v>32</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
+      <c r="C3" s="14" t="s">
+        <v>33</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
+      <c r="D3" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -38673,214 +37996,17 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="10"/>
-    </row>
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -39855,17 +38981,6 @@
     <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -39873,7 +38988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39931,20 +39046,20 @@
     </row>
     <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-10-31 21-09</v>
+        <v>2022-11-15 0-15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
